--- a/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7004A4AB-5D19-4E26-B77F-7C540F63C6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B5AD36-E8F9-4685-BEB5-8245D2DE51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88C221D0-8E0A-4756-9A5E-D01C7C204F33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB15A19-0D74-44C2-97A3-A8D694670383}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECCEAAB-2E5F-4121-847C-043BB2FA91F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F2D16F-C04B-40DF-A3D5-BC9F7A92A37E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B5AD36-E8F9-4685-BEB5-8245D2DE51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A369C8D3-4826-4E57-84FB-D920AD7464D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB15A19-0D74-44C2-97A3-A8D694670383}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF7492E-8E0E-4349-B147-15F44AB8E18A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -152,382 +152,382 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>19,74%</t>
+    <t>16,12%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>35,49%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F2D16F-C04B-40DF-A3D5-BC9F7A92A37E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500AC82-92E2-4C84-845A-928BEC69323E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1550,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1559,13 +1559,13 @@
         <v>2059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>4987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1595,13 +1595,13 @@
         <v>14468</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -1610,13 +1610,13 @@
         <v>19454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1684,13 +1684,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1699,13 +1699,13 @@
         <v>3763</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>5648</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>97</v>

--- a/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A369C8D3-4826-4E57-84FB-D920AD7464D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BA3D1-E4CA-4094-938C-03F23C4611CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ACF7492E-8E0E-4349-B147-15F44AB8E18A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF6EB3DA-9B85-4858-AD81-21F5BC0D064D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -158,79 +158,79 @@
     <t>23,17%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>19,74%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>59,72%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -239,28 +239,28 @@
     <t>40,2%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>28,49%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -269,70 +269,70 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -341,19 +341,19 @@
     <t>14,14%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>54,52%</t>
@@ -365,7 +365,7 @@
     <t>70,38%</t>
   </si>
   <si>
-    <t>52,96%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>83,44%</t>
@@ -374,10 +374,10 @@
     <t>68,07%</t>
   </si>
   <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -386,34 +386,34 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>40,6%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>43,01%</t>
+    <t>42,6%</t>
   </si>
   <si>
     <t>5,45%</t>
@@ -422,112 +422,112 @@
     <t>4,67%</t>
   </si>
   <si>
-    <t>14,08%</t>
+    <t>14,87%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>59,4%</t>
   </si>
   <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0500AC82-92E2-4C84-845A-928BEC69323E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F371E8B7-05EA-4776-A325-CB0FA5CAA848}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1550,7 +1550,7 @@
         <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1559,13 +1559,13 @@
         <v>2059</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>4987</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -1595,13 +1595,13 @@
         <v>14468</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -1610,13 +1610,13 @@
         <v>19454</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,7 +1672,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1684,13 +1684,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1699,13 +1699,13 @@
         <v>3763</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>5648</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>97</v>

--- a/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BA3D1-E4CA-4094-938C-03F23C4611CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B59D7D5-2B5D-4822-8508-C828806E99C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF6EB3DA-9B85-4858-AD81-21F5BC0D064D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{96CBD69D-2850-4293-8B6C-FB09D088F236}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -65,469 +65,409 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>Sí, dos o más veces</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>Sí, una vez</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>45,21%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>Sí, dos o más veces</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>Sí, una vez</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -942,8 +882,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F371E8B7-05EA-4776-A325-CB0FA5CAA848}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16878659-B56E-4179-868F-C642BCF5C19A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1060,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2523</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1075,136 +1015,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>643</v>
+        <v>6128</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N4" s="7">
-        <v>643</v>
+        <v>8650</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>456</v>
+        <v>781</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>1446</v>
+        <v>4014</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>1902</v>
+        <v>4795</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9458</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
         <v>27</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1649</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
       <c r="I6" s="7">
-        <v>2310</v>
+        <v>10789</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>3960</v>
+        <v>20248</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1213,54 +1153,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>2105</v>
+        <v>12762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>4399</v>
+        <v>20931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="N7" s="7">
-        <v>6505</v>
+        <v>33693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1269,148 +1209,148 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>2590</v>
+        <v>3267</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>5846</v>
+        <v>6057</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>8436</v>
+        <v>9324</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2857</v>
+        <v>1942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>3217</v>
+        <v>1942</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8230</v>
+        <v>4795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>9051</v>
+        <v>13437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>17281</v>
+        <v>18232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,108 +1359,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>11181</v>
+        <v>8062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I11" s="7">
-        <v>17754</v>
+        <v>21436</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>28934</v>
+        <v>29498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>3352</v>
+        <v>1749</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>6584</v>
+        <v>3478</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>9936</v>
+        <v>5227</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1529,94 +1469,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2059</v>
+        <v>3047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2059</v>
+        <v>3047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2119</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="7">
         <v>27</v>
       </c>
-      <c r="C14" s="7">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4987</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
       <c r="I14" s="7">
-        <v>14468</v>
+        <v>15619</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>19454</v>
+        <v>17738</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,204 +1565,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>8339</v>
+        <v>3868</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I15" s="7">
-        <v>23111</v>
+        <v>22144</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N15" s="7">
-        <v>31449</v>
+        <v>26012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1885</v>
+        <v>4515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>3763</v>
+        <v>7411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>5648</v>
+        <v>11926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1413</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3438</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>3438</v>
+        <v>1413</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>2260</v>
+        <v>3488</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>17112</v>
+        <v>10768</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>19371</v>
+        <v>14256</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,204 +1771,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>4145</v>
+        <v>9416</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>24313</v>
+        <v>18179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>28458</v>
+        <v>27595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>4572</v>
+        <v>12054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I20" s="7">
-        <v>8226</v>
+        <v>23074</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>12797</v>
+        <v>35127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>1402</v>
+        <v>2194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>9003</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N21" s="7">
-        <v>1402</v>
+        <v>11197</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>3779</v>
+        <v>19862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I22" s="7">
-        <v>12035</v>
+        <v>50613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>15814</v>
+        <v>70474</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,268 +1977,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7">
-        <v>9752</v>
+        <v>34109</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="I23" s="7">
-        <v>20261</v>
+        <v>82690</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="N23" s="7">
-        <v>30013</v>
+        <v>116798</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>20</v>
-      </c>
-      <c r="D24" s="7">
-        <v>12399</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="7">
-        <v>48</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25062</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="7">
-        <v>68</v>
-      </c>
-      <c r="N24" s="7">
-        <v>37461</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="A24" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2218</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9800</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M25" s="7">
-        <v>23</v>
-      </c>
-      <c r="N25" s="7">
-        <v>12018</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="7">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7">
-        <v>20905</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="7">
-        <v>104</v>
-      </c>
-      <c r="I26" s="7">
-        <v>54976</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M26" s="7">
-        <v>140</v>
-      </c>
-      <c r="N26" s="7">
-        <v>75881</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>60</v>
-      </c>
-      <c r="D27" s="7">
-        <v>35522</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="7">
-        <v>171</v>
-      </c>
-      <c r="I27" s="7">
-        <v>89838</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="7">
-        <v>231</v>
-      </c>
-      <c r="N27" s="7">
-        <v>125360</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
